--- a/macro/replication/moments_table.xlsx
+++ b/macro/replication/moments_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>Table 1</t>
   </si>
@@ -72,7 +72,7 @@
     <t>0.6451 (.07)</t>
   </si>
   <si>
-    <t>0.52 (.046)</t>
+    <t>0.52 (.05)</t>
   </si>
   <si>
     <t>-0.02 (0.14)</t>
@@ -276,6 +276,39 @@
     <t>…</t>
   </si>
   <si>
+    <t>-0.17 (.16)</t>
+  </si>
+  <si>
+    <t>-0.27 (.16)</t>
+  </si>
+  <si>
+    <t>-0.23 (.15)</t>
+  </si>
+  <si>
+    <t>-0.22 (.13)</t>
+  </si>
+  <si>
+    <t>-0.22 (.12)</t>
+  </si>
+  <si>
+    <t>-0.24 (.11)</t>
+  </si>
+  <si>
+    <t>-0.09 (.10)</t>
+  </si>
+  <si>
+    <t>0.08 (.12)</t>
+  </si>
+  <si>
+    <t>0.28 (.11)</t>
+  </si>
+  <si>
+    <t>0.51 (.11)</t>
+  </si>
+  <si>
+    <t>0.34 (.13)</t>
+  </si>
+  <si>
     <t>Foreign and domestic output</t>
   </si>
   <si>
@@ -325,9 +358,6 @@
   </si>
   <si>
     <t>0.56 (.10)</t>
-  </si>
-  <si>
-    <t>0.34 (.13)</t>
   </si>
   <si>
     <t>0.19 (.15)</t>
@@ -540,13 +570,13 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2025,241 +2055,263 @@
       <c r="C9" t="s" s="11">
         <v>86</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="D9" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s" s="11">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s" s="11">
+        <v>96</v>
+      </c>
+      <c r="N9" t="s" s="11">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2339,177 +2391,177 @@
     </row>
     <row r="2" ht="32.55" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="7">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s" s="8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s" s="8">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s" s="8">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s" s="8">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s" s="8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s" s="8">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="44.35" customHeight="1">
       <c r="A3" t="s" s="9">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s" s="11">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s" s="11">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s" s="11">
+        <v>114</v>
+      </c>
+      <c r="I3" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="C3" t="s" s="11">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s" s="11">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s" s="11">
-        <v>104</v>
-      </c>
       <c r="J3" t="s" s="11">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s" s="11">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s" s="11">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
